--- a/edt diagrama logico.xlsx
+++ b/edt diagrama logico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skill\Desktop\Redes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF83B455-8C79-4B4E-A033-6AC5AD11A0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A803833-7B61-4C79-939E-65AFEE3B6905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A60F963E-47DB-4D4C-8357-F4A7B554509B}"/>
   </bookViews>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t xml:space="preserve">DURACION DEL PROYECTO </t>
-  </si>
-  <si>
-    <t>ID - 512111</t>
   </si>
   <si>
     <t xml:space="preserve">Ing . Hector Melgarejo </t>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t xml:space="preserve">El acceso a las diferentes areas de la institucion donde se va a trabajar como por ejemplo las aulas, el pasillo,  o el estacionamiento, debera ser controlado y  planificado previamente por el contratante, quien nos deberá presentar como grupo de trabajo en la instalacion del cableado estructurado, ante  la seguridad de la institucion y ante los demas colaboradores de la institución para si gestionar de una manera correcta el acceso a las areas.   </t>
+  </si>
+  <si>
+    <t>ID 0024</t>
   </si>
 </sst>
 </file>
@@ -396,6 +396,240 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -432,15 +666,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -467,231 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1018,931 +1018,931 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164363B7-D5B0-4C0A-99A2-95F7FE4DEF21}">
   <dimension ref="B1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:Q24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="30"/>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="87" t="s">
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="94" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="87" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="51"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
       <c r="R2" s="1"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="81"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
       <c r="R3" s="1"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="97">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="37">
         <v>44796</v>
       </c>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="88" t="s">
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="90"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
       <c r="R4" s="1"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="84"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="93"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="30"/>
       <c r="R5" s="1"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="6"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="84"/>
       <c r="R6" s="1"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="87"/>
       <c r="R7" s="1"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="90"/>
       <c r="R8" s="1"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="93"/>
       <c r="R9" s="1"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
     <row r="10" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
       <c r="R10" s="1"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="42"/>
+      <c r="B11" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="51"/>
       <c r="R11" s="1"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="45"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
       <c r="R12" s="1"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="18"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="57"/>
       <c r="R13" s="1"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
+      <c r="B14" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
       <c r="R14" s="1"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="48"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
       <c r="R15" s="1"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="45"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
       <c r="R16" s="1"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="18"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
       <c r="R17" s="1"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="21"/>
+      <c r="B18" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="96"/>
       <c r="R18" s="1"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="24"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="99"/>
       <c r="R19" s="1"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="27"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="102"/>
       <c r="R20" s="1"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="18"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="57"/>
       <c r="R21" s="1"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="51"/>
+      <c r="B22" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="1"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="54"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
       <c r="R23" s="1"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="57"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
       <c r="R24" s="1"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="18"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="57"/>
       <c r="R25" s="1"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="51"/>
+      <c r="B26" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="18"/>
       <c r="R26" s="1"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="54"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21"/>
       <c r="R27" s="1"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="57"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
       <c r="R28" s="1"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="18"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="57"/>
       <c r="R29" s="1"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="59"/>
+      <c r="B30" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="63"/>
       <c r="R30" s="1"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="62"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="66"/>
       <c r="R31" s="1"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="65"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="69"/>
       <c r="R32" s="1"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="68"/>
+      <c r="B33" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="72"/>
       <c r="R33" s="1"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="71"/>
+      <c r="B34" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="75"/>
       <c r="R34" s="1"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="74"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="78"/>
       <c r="R35" s="1"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="75"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="77"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="81"/>
       <c r="R36" s="1"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="30"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="6"/>
       <c r="R37" s="1"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="36"/>
       <c r="R38" s="1"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="33"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="36"/>
       <c r="R39" s="1"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="36"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="45"/>
       <c r="R40" s="1"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -2036,13 +2036,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="B2:E5"/>
-    <mergeCell ref="F2:I5"/>
-    <mergeCell ref="N4:Q5"/>
-    <mergeCell ref="N2:Q3"/>
-    <mergeCell ref="J2:M3"/>
-    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B7:Q9"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="B18:Q20"/>
+    <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B37:Q37"/>
     <mergeCell ref="B38:Q40"/>
     <mergeCell ref="B10:Q10"/>
@@ -2056,11 +2054,13 @@
     <mergeCell ref="B30:Q32"/>
     <mergeCell ref="B33:Q33"/>
     <mergeCell ref="B34:Q36"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B7:Q9"/>
-    <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B18:Q20"/>
-    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="F2:I5"/>
+    <mergeCell ref="N4:Q5"/>
+    <mergeCell ref="N2:Q3"/>
+    <mergeCell ref="J2:M3"/>
+    <mergeCell ref="J4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2093,17 +2093,17 @@
       <c r="L3" s="105"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B4" s="91"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="93"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="P12" s="103" t="s">
@@ -2126,22 +2126,22 @@
       <c r="AE12" s="105"/>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="P13" s="91"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="93"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="30"/>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="R16" s="103" t="s">
@@ -2160,18 +2160,18 @@
       <c r="AC16" s="105"/>
     </row>
     <row r="17" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="R17" s="91"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="93"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="30"/>
     </row>
     <row r="21" spans="6:41" x14ac:dyDescent="0.25">
       <c r="H21" s="103" t="s">
@@ -2203,27 +2203,27 @@
       <c r="AN21" s="105"/>
     </row>
     <row r="22" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="H22" s="91"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="93"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="93"/>
-      <c r="AH22" s="91"/>
-      <c r="AI22" s="92"/>
-      <c r="AJ22" s="92"/>
-      <c r="AK22" s="92"/>
-      <c r="AL22" s="92"/>
-      <c r="AM22" s="92"/>
-      <c r="AN22" s="93"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="30"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="30"/>
     </row>
     <row r="24" spans="6:41" x14ac:dyDescent="0.25">
       <c r="AA24" s="2"/>
@@ -2266,27 +2266,27 @@
       <c r="AO25" s="105"/>
     </row>
     <row r="26" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="F26" s="91"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="93"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="93"/>
-      <c r="S26" s="91"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="93"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="92"/>
-      <c r="AB26" s="93"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="30"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="30"/>
       <c r="AC26" s="2"/>
-      <c r="AG26" s="91"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="92"/>
-      <c r="AJ26" s="93"/>
-      <c r="AM26" s="91"/>
-      <c r="AN26" s="92"/>
-      <c r="AO26" s="93"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="30"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="29"/>
+      <c r="AO26" s="30"/>
     </row>
     <row r="27" spans="6:41" x14ac:dyDescent="0.25">
       <c r="AA27" s="2"/>
